--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/100/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/100/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6386386386386387</v>
+        <v>0.4826482648264827</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.09809809809811</v>
+        <v>1869.076907690769</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03883883883883884</v>
+        <v>0.04388438843884389</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5845845845845846</v>
+        <v>0.1884188418841884</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>470.4704704704705</v>
+        <v>1879.337933793379</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.5245245245246</v>
+        <v>496.939693969397</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.940940940941</v>
+        <v>622.2403240324032</v>
       </c>
     </row>
   </sheetData>
